--- a/LEVI.xlsx
+++ b/LEVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4383CB-D55B-4DAC-87EF-39A3EA1C7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD3CDC-9A61-4173-AA94-FEE3CF392EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={93488800-9525-4897-9A19-EDD506EE4146}</author>
+  </authors>
+  <commentList>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{93488800-9525-4897-9A19-EDD506EE4146}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Discontinued Operations</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -245,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +302,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,7 +449,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -451,6 +475,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -468,6 +494,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{DCCB7AD0-61C5-4C6E-873B-9E553715F2BF}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,12 +817,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L20" dT="2025-07-11T15:09:29.80" personId="{DCCB7AD0-61C5-4C6E-873B-9E553715F2BF}" id="{93488800-9525-4897-9A19-EDD506EE4146}">
+    <text>Discontinued Operations</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB580E4-37AA-40C1-AAF1-14DD30CC99D4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="6">
-        <v>14.88</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,8 +863,8 @@
         <v>4</v>
       </c>
       <c r="I3" s="6">
-        <f>104.585522+290.742518</f>
-        <v>395.32803999999999</v>
+        <f>107.20684+288.447601</f>
+        <v>395.65444100000002</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>55</v>
@@ -840,7 +880,7 @@
       </c>
       <c r="I4" s="6">
         <f>I3*I2</f>
-        <v>5882.4812351999999</v>
+        <v>8633.1799026200006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,7 +891,8 @@
         <v>6</v>
       </c>
       <c r="I5" s="6">
-        <v>574.4</v>
+        <f>653.6+83.1</f>
+        <v>736.7</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>55</v>
@@ -862,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="6">
-        <v>987.4</v>
+        <v>1033.7</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>55</v>
@@ -880,7 +921,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>6295.4812351999999</v>
+        <v>8930.1799026200006</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -934,14 +975,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24653C7A-501A-410A-9E04-3084EFB9A76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24653C7A-501A-410A-9E04-3084EFB9A76F}">
   <dimension ref="A1:Z330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G8:G9"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1068,17 @@
       <c r="G3" s="6">
         <v>735.8</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6">
+        <v>712.2</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
         <v>783</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>748.4</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1057,13 +1102,17 @@
       <c r="G4" s="6">
         <v>423.5</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>353.7</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6">
         <v>400.5</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>403.1</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1087,13 +1136,17 @@
       <c r="G5" s="6">
         <v>288.8</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>260</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6">
         <v>308.10000000000002</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>257.7</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1117,13 +1170,17 @@
       <c r="G6" s="6">
         <v>758.4</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>710.8</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6">
         <v>739.3</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>729.9</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1147,13 +1204,17 @@
       <c r="G7" s="6">
         <v>721.8</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>648</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6">
         <v>787.5</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>716.1</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1178,14 +1239,18 @@
         <f>+G6+G7</f>
         <v>1480.1999999999998</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>1325.9</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6">
         <f>+K6+K7</f>
         <v>1526.8</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>1409.2</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1209,13 +1274,17 @@
       <c r="G9" s="6">
         <v>32.1</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>32.9</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <v>36.799999999999997</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1248,19 +1317,21 @@
         <v>1557.6</v>
       </c>
       <c r="H10" s="7">
-        <v>1441.2</v>
+        <v>1358.8</v>
       </c>
       <c r="I10" s="7">
         <v>1516.8</v>
       </c>
       <c r="J10" s="7">
         <f>+V10-SUM(G10:I10)</f>
-        <v>1839.6999999999998</v>
+        <v>1922.1000000000004</v>
       </c>
       <c r="K10" s="7">
         <v>1526.8</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>1446</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="6"/>
@@ -1311,19 +1382,21 @@
         <v>651.1</v>
       </c>
       <c r="H11" s="6">
-        <v>569.5</v>
+        <v>526.4</v>
       </c>
       <c r="I11" s="6">
         <v>606.1</v>
       </c>
       <c r="J11" s="6">
         <f>+V11-SUM(G11:I11)</f>
-        <v>712.70000000000027</v>
+        <v>755.80000000000018</v>
       </c>
       <c r="K11" s="6">
         <v>579.20000000000005</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>540.20000000000005</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1379,7 +1452,7 @@
       </c>
       <c r="H12" s="6">
         <f>H10-H11</f>
-        <v>871.7</v>
+        <v>832.4</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12:K12" si="1">I10-I11</f>
@@ -1387,13 +1460,16 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>1126.9999999999995</v>
+        <v>1166.3000000000002</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>947.59999999999991</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <f>+L10-L11</f>
+        <v>905.8</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1451,19 +1527,21 @@
         <v>790.7</v>
       </c>
       <c r="H13" s="6">
-        <v>794.7</v>
+        <v>756.4</v>
       </c>
       <c r="I13" s="6">
         <v>765.6</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J14" si="4">+V13-SUM(G13:I13)</f>
-        <v>895.19999999999982</v>
+        <v>933.5</v>
       </c>
       <c r="K13" s="6">
         <v>749.3</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>791</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1528,7 +1606,9 @@
       <c r="K14" s="6">
         <v>6.7</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>6.8</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1585,21 +1665,24 @@
       </c>
       <c r="H15" s="6">
         <f>H12-SUM(H13:H14)</f>
-        <v>21.899999999999977</v>
+        <v>20.899999999999977</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:K15" si="6">I12-SUM(I13:I14)</f>
+        <f t="shared" ref="I15:L15" si="6">I12-SUM(I13:I14)</f>
         <v>30.299999999999841</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="6"/>
-        <v>212.29999999999973</v>
+        <v>213.30000000000018</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="6"/>
         <v>191.59999999999991</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -1669,7 +1752,9 @@
       <c r="K16" s="6">
         <v>-10.9</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>-11.8</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1732,7 +1817,9 @@
       <c r="K17" s="6">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>6.3</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1790,21 +1877,24 @@
       </c>
       <c r="H18" s="6">
         <f>H15+H16+H17</f>
-        <v>11.999999999999977</v>
+        <v>10.999999999999977</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="I18:K18" si="9">I15+I16+I17</f>
+        <f t="shared" ref="I18:L18" si="9">I15+I16+I17</f>
         <v>19.799999999999841</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="9"/>
-        <v>199.89999999999972</v>
+        <v>200.90000000000018</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="9"/>
         <v>176.59999999999991</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <f t="shared" si="9"/>
+        <v>102.5</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1862,19 +1952,21 @@
         <v>-2.1</v>
       </c>
       <c r="H19" s="6">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="I19" s="6">
         <v>-0.9</v>
       </c>
       <c r="J19" s="6">
         <f>+V19-SUM(G19:I19)</f>
-        <v>17.399999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K19" s="6">
         <v>36.4</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>22.9</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -1924,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
@@ -1935,7 +2027,9 @@
       <c r="K20" s="6">
         <v>5.2</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>12.6</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -1999,13 +2093,16 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="12"/>
-        <v>182.49999999999972</v>
+        <v>183.30000000000018</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="12"/>
         <v>134.99999999999991</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <f>+L18-L19-L20</f>
+        <v>67</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2073,7 +2170,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:K23" si="19">C21/C24</f>
+        <f t="shared" ref="C23:L23" si="19">C21/C24</f>
         <v>0.2896785180133899</v>
       </c>
       <c r="D23" s="8">
@@ -2102,13 +2199,16 @@
       </c>
       <c r="J23" s="8">
         <f t="shared" si="19"/>
-        <v>0.4583124058262173</v>
+        <v>0.4603214465092923</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="19"/>
         <v>0.34041337510677799</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8">
+        <f t="shared" si="19"/>
+        <v>0.16901307263142556</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -2178,7 +2278,9 @@
       <c r="K24" s="6">
         <v>396.576662</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>396.41904</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2243,14 +2345,38 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="G26" s="22" t="e">
+        <f t="shared" ref="G26:G27" si="21">G8/C8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="22" t="e">
+        <f t="shared" ref="H26:H27" si="22">H8/D8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="22" t="e">
+        <f t="shared" ref="I26:I27" si="23">I8/E8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="22" t="e">
+        <f t="shared" ref="J26:J27" si="24">J8/F8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" ref="K26:K27" si="25">K8/G8-1</f>
+        <v>3.1482232130793264E-2</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" ref="L26:N28" si="26">L8/H8-1</f>
+        <v>6.2825250773059782E-2</v>
+      </c>
+      <c r="M26" s="22" t="e">
+        <f t="shared" ref="M26:M27" si="27">M8/I8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="22" t="e">
+        <f t="shared" ref="N26:N27" si="28">N8/J8-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
@@ -2273,14 +2399,38 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="G27" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="22" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="22" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="25"/>
+        <v>9.6573208722741555E-2</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="26"/>
+        <v>0.11854103343465039</v>
+      </c>
+      <c r="M27" s="22" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="22" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
@@ -2295,59 +2445,68 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
         <f>G10/C10-1</f>
         <v>-7.7742909586121289E-2</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" ref="H28:I28" si="21">H10/D10-1</f>
-        <v>7.8096947935368144E-2</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="21"/>
+      <c r="H28" s="21">
+        <f t="shared" ref="H28:I28" si="29">H10/D10-1</f>
+        <v>1.645721125074795E-2</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="29"/>
         <v>3.838517538054198E-3</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="21">
         <f>J10/F10-1</f>
-        <v>0.12019728429641341</v>
-      </c>
-      <c r="K28" s="20">
+        <v>0.17037082140899962</v>
+      </c>
+      <c r="K28" s="21">
         <f>K10/G10-1</f>
         <v>-1.9774011299435013E-2</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="L28" s="21">
+        <f t="shared" si="26"/>
+        <v>6.417427141595522E-2</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="20" t="e">
-        <f t="shared" ref="P28:U28" si="22">P10/O10-1</f>
+        <f t="shared" ref="P28:U28" si="30">P10/O10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3.3655998450346614E-2</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-0.22739167394141369</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.29449947210725202</v>
       </c>
       <c r="T28" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>7.0212876698069193E-2</v>
       </c>
       <c r="U28" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1.685957915896541E-3</v>
       </c>
       <c r="V28" s="20">
@@ -2364,19 +2523,19 @@
         <v>42</v>
       </c>
       <c r="C29" s="20">
-        <f t="shared" ref="C29:F29" si="23">C12/C10</f>
+        <f t="shared" ref="C29:F29" si="31">C12/C10</f>
         <v>0.55793711883474451</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.58662477558348292</v>
       </c>
       <c r="E29" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.55559232296492389</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.57827437130853065</v>
       </c>
       <c r="G29" s="20">
@@ -2384,51 +2543,60 @@
         <v>0.58198510529018999</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:J29" si="24">H12/H10</f>
-        <v>0.60484318623369415</v>
+        <f t="shared" ref="H29:J29" si="32">H12/H10</f>
+        <v>0.61259935236973806</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0.60040875527426163</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="24"/>
-        <v>0.6125998804152849</v>
+        <f t="shared" si="32"/>
+        <v>0.60678424639716977</v>
       </c>
       <c r="K29" s="20">
-        <f t="shared" ref="K29" si="25">K12/K10</f>
+        <f t="shared" ref="K29:N29" si="33">K12/K10</f>
         <v>0.62064448519779924</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="L29" s="20">
+        <f t="shared" si="33"/>
+        <v>0.626417704011065</v>
+      </c>
+      <c r="M29" s="20" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="20" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="20">
-        <f t="shared" ref="P29:V29" si="26">P12/P10</f>
+        <f t="shared" ref="P29:V29" si="34">P12/P10</f>
         <v>0.53771092505703577</v>
       </c>
       <c r="Q29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.53814440073523095</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.52843714774865702</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.58063116986762431</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.57530071653211423</v>
       </c>
       <c r="U29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.56897556238873603</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.60042798923732943</v>
       </c>
       <c r="W29" s="6"/>
@@ -2441,19 +2609,19 @@
         <v>43</v>
       </c>
       <c r="C30" s="20">
-        <f t="shared" ref="C30:F30" si="27">C15/C10</f>
+        <f t="shared" ref="C30:F30" si="35">C15/C10</f>
         <v>9.3196755284504759E-2</v>
       </c>
       <c r="D30" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>7.4057450628366083E-3</v>
       </c>
       <c r="E30" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>2.3031105228325584E-2</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>9.2066004992997844E-2</v>
       </c>
       <c r="G30" s="20">
@@ -2461,51 +2629,60 @@
         <v>-2.5680534155123568E-4</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" ref="H30:J30" si="28">H15/H10</f>
-        <v>1.5195670274771008E-2</v>
+        <f t="shared" ref="H30:J30" si="36">H15/H10</f>
+        <v>1.5381218722402104E-2</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1.9976265822784705E-2</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="28"/>
-        <v>0.11539924987769731</v>
+        <f t="shared" si="36"/>
+        <v>0.11097237396597479</v>
       </c>
       <c r="K30" s="20">
-        <f t="shared" ref="K30" si="29">K15/K10</f>
+        <f t="shared" ref="K30:N30" si="37">K15/K10</f>
         <v>0.12549122347393235</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="L30" s="20">
+        <f t="shared" si="37"/>
+        <v>7.4688796680497924E-2</v>
+      </c>
+      <c r="M30" s="20" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="20" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="20">
-        <f t="shared" ref="P30:V30" si="30">P15/P10</f>
+        <f t="shared" ref="P30:V30" si="38">P15/P10</f>
         <v>9.6927058671602534E-2</v>
       </c>
       <c r="Q30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>9.8328378523524038E-2</v>
       </c>
       <c r="R30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>-1.9116657222765277E-2</v>
       </c>
       <c r="S30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.1190513367685074</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.10480498006030549</v>
       </c>
       <c r="U30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>5.7177536818255409E-2</v>
       </c>
       <c r="V30" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>4.1555866756880139E-2</v>
       </c>
       <c r="W30" s="6"/>
@@ -2518,19 +2695,19 @@
         <v>44</v>
       </c>
       <c r="C31" s="20">
-        <f t="shared" ref="C31:F31" si="31">C21/C10</f>
+        <f t="shared" ref="C31:F31" si="39">C21/C10</f>
         <v>6.7914026881402148E-2</v>
       </c>
       <c r="D31" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-1.196888090963512E-3</v>
       </c>
       <c r="E31" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>6.3534083388484151E-3</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>7.7269682761980374E-2</v>
       </c>
       <c r="G31" s="20">
@@ -2538,51 +2715,60 @@
         <v>-6.8053415511043951E-3</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" ref="H31:J31" si="32">H21/H10</f>
-        <v>1.2489592006661101E-2</v>
+        <f t="shared" ref="H31:J31" si="40">H21/H10</f>
+        <v>1.3246982631733868E-2</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>1.3647151898734071E-2</v>
       </c>
       <c r="J31" s="20">
-        <f t="shared" si="32"/>
-        <v>9.9200956677719054E-2</v>
+        <f t="shared" si="40"/>
+        <v>9.5364445138130249E-2</v>
       </c>
       <c r="K31" s="20">
-        <f t="shared" ref="K31" si="33">K21/K10</f>
+        <f t="shared" ref="K31:N31" si="41">K21/K10</f>
         <v>8.8420225307833319E-2</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="L31" s="20">
+        <f t="shared" si="41"/>
+        <v>4.6334716459197789E-2</v>
+      </c>
+      <c r="M31" s="20" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="20" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="20">
-        <f t="shared" ref="P31:V31" si="34">P21/P10</f>
+        <f t="shared" ref="P31:V31" si="42">P21/P10</f>
         <v>5.0783794642216509E-2</v>
       </c>
       <c r="Q31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>6.8472330887942634E-2</v>
       </c>
       <c r="R31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>-2.8554270091984198E-2</v>
       </c>
       <c r="S31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>9.6028730547025418E-2</v>
       </c>
       <c r="T31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>9.2257562493920878E-2</v>
       </c>
       <c r="U31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>4.0394885903867979E-2</v>
       </c>
       <c r="V31" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>3.3137696096171752E-2</v>
       </c>
       <c r="W31" s="6"/>
@@ -2595,19 +2781,19 @@
         <v>45</v>
       </c>
       <c r="C32" s="20">
-        <f t="shared" ref="C32:F32" si="35">C19/C18</f>
+        <f t="shared" ref="C32:F32" si="43">C19/C18</f>
         <v>0.17600574712643666</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.77777777777777535</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>3.8235294117646554</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>7.1010248901903175E-2</v>
       </c>
       <c r="G32" s="20">
@@ -2615,51 +2801,60 @@
         <v>0.16535433070865876</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" ref="H32:J32" si="36">H19/H18</f>
-        <v>-0.500000000000001</v>
+        <f t="shared" ref="H32:J32" si="44">H19/H18</f>
+        <v>-0.56363636363636482</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>-4.5454545454545824E-2</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="36"/>
-        <v>8.7043521760880552E-2</v>
+        <f t="shared" si="44"/>
+        <v>8.7605774016923779E-2</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" ref="K32" si="37">K19/K18</f>
+        <f t="shared" ref="K32:N32" si="45">K19/K18</f>
         <v>0.20611551528878833</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="L32" s="20">
+        <f t="shared" si="45"/>
+        <v>0.22341463414634144</v>
+      </c>
+      <c r="M32" s="20" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="20" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="20">
-        <f t="shared" ref="P32:V32" si="38">P19/P18</f>
+        <f t="shared" ref="P32:V32" si="46">P19/P18</f>
         <v>0.42953710036758413</v>
       </c>
       <c r="Q32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.1729622432912323</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.33007171348329467</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.6018614270941068E-2</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.12392241379310338</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>5.8823529411764656E-2</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8356164383561583E-2</v>
       </c>
       <c r="W32" s="6"/>
@@ -10421,5 +10616,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LEVI.xlsx
+++ b/LEVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8604058-2DF6-4935-9D90-F3AB0000AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A5221-899C-4A40-8381-84084641E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -263,13 +263,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,37 +457,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -834,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB580E4-37AA-40C1-AAF1-14DD30CC99D4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>21.82</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -869,11 +878,11 @@
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <f>107.20684+288.447601</f>
-        <v>395.65444100000002</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>55</v>
+        <f>103.091513+287.738043</f>
+        <v>390.82955600000003</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -886,22 +895,22 @@
       </c>
       <c r="I4" s="3">
         <f>I3*I2</f>
-        <v>8633.1799026200006</v>
+        <v>8899.1889901200011</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3">
-        <f>653.6+83.1</f>
-        <v>736.7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>55</v>
+        <f>612.8+94.7</f>
+        <v>707.5</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -909,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="3">
-        <v>1033.7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>55</v>
+        <v>1042.8</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -927,7 +936,7 @@
       </c>
       <c r="I7" s="3">
         <f>I4-I5+I6</f>
-        <v>8930.1799026200006</v>
+        <v>9234.4889901200004</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -975,6 +984,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{7F108CC5-27E0-4FD6-A872-F05CE164EB54}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{B9272F93-1BC5-4E74-A539-A5B8C55DBD21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -985,10 +995,10 @@
   <dimension ref="A1:Z330"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1088,9 @@
       <c r="H3" s="3">
         <v>712.2</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>757.2</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3">
         <v>783</v>
@@ -1086,7 +1098,9 @@
       <c r="L3" s="3">
         <v>748.4</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>806.4</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1112,7 +1126,9 @@
       <c r="H4" s="3">
         <v>353.7</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>406.6</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>400.5</v>
@@ -1120,7 +1136,9 @@
       <c r="L4" s="3">
         <v>403.1</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>426.3</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1146,7 +1164,9 @@
       <c r="H5" s="3">
         <v>260</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>247.1</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>308.10000000000002</v>
@@ -1154,7 +1174,9 @@
       <c r="L5" s="3">
         <v>257.7</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>277.7</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1180,7 +1202,9 @@
       <c r="H6" s="3">
         <v>710.8</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>804.1</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
         <v>739.3</v>
@@ -1188,7 +1212,9 @@
       <c r="L6" s="3">
         <v>729.9</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>832.2</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1214,7 +1240,9 @@
       <c r="H7" s="3">
         <v>648</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>639</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>787.5</v>
@@ -1222,7 +1250,9 @@
       <c r="L7" s="3">
         <v>716.1</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>711.2</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1249,7 +1279,9 @@
       <c r="H8" s="3">
         <v>1325.9</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>1410.9</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
         <f>+K6+K7</f>
@@ -1258,7 +1290,9 @@
       <c r="L8" s="3">
         <v>1409.2</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>1510.4</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1284,7 +1318,9 @@
       <c r="H9" s="3">
         <v>32.9</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>32.200000000000003</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
         <v>35.200000000000003</v>
@@ -1292,7 +1328,9 @@
       <c r="L9" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>33</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1327,11 +1365,11 @@
         <v>1358.8</v>
       </c>
       <c r="I10" s="19">
-        <v>1516.8</v>
+        <v>1443.1</v>
       </c>
       <c r="J10" s="19">
         <f>+V10-SUM(G10:I10)</f>
-        <v>1922.1000000000004</v>
+        <v>1995.8000000000002</v>
       </c>
       <c r="K10" s="19">
         <v>1526.8</v>
@@ -1339,7 +1377,9 @@
       <c r="L10" s="19">
         <v>1446</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="19">
+        <v>1543.4</v>
+      </c>
       <c r="N10" s="19"/>
       <c r="O10" s="3"/>
       <c r="P10" s="19">
@@ -1392,11 +1432,11 @@
         <v>526.4</v>
       </c>
       <c r="I11" s="3">
-        <v>606.1</v>
+        <v>569.20000000000005</v>
       </c>
       <c r="J11" s="3">
         <f>+V11-SUM(G11:I11)</f>
-        <v>755.80000000000018</v>
+        <v>792.7</v>
       </c>
       <c r="K11" s="3">
         <v>579.20000000000005</v>
@@ -1404,7 +1444,9 @@
       <c r="L11" s="3">
         <v>540.20000000000005</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>591.79999999999995</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -1463,11 +1505,11 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" ref="I12:K12" si="1">I10-I11</f>
-        <v>910.69999999999993</v>
+        <v>873.89999999999986</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>1166.3000000000002</v>
+        <v>1203.1000000000001</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
@@ -1477,7 +1519,10 @@
         <f>+L10-L11</f>
         <v>905.8</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <f>+M10-M11</f>
+        <v>951.60000000000014</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
@@ -1537,11 +1582,11 @@
         <v>756.4</v>
       </c>
       <c r="I13" s="3">
-        <v>765.6</v>
+        <v>726.4</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ref="J13:J14" si="4">+V13-SUM(G13:I13)</f>
-        <v>933.5</v>
+        <v>972.69999999999982</v>
       </c>
       <c r="K13" s="3">
         <v>749.3</v>
@@ -1549,7 +1594,9 @@
       <c r="L13" s="3">
         <v>791</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>775.6</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
@@ -1603,7 +1650,7 @@
         <v>55.1</v>
       </c>
       <c r="I14" s="3">
-        <f>3.4+111.4</f>
+        <f>111.4+3.4</f>
         <v>114.80000000000001</v>
       </c>
       <c r="J14" s="3">
@@ -1616,7 +1663,9 @@
       <c r="L14" s="3">
         <v>6.8</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>8.6</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -1675,12 +1724,12 @@
         <v>20.899999999999977</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:L15" si="6">I12-SUM(I13:I14)</f>
-        <v>30.299999999999841</v>
+        <f t="shared" ref="I15:M15" si="6">I12-SUM(I13:I14)</f>
+        <v>32.699999999999818</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="6"/>
-        <v>213.30000000000018</v>
+        <v>210.90000000000032</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="6"/>
@@ -1690,7 +1739,10 @@
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <f t="shared" si="6"/>
+        <v>167.40000000000009</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -1762,7 +1814,9 @@
       <c r="L16" s="3">
         <v>-11.8</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>-12.5</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -1827,7 +1881,9 @@
       <c r="L17" s="3">
         <v>6.3</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>1.3</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -1887,12 +1943,12 @@
         <v>10.999999999999977</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" ref="I18:L18" si="9">I15+I16+I17</f>
-        <v>19.799999999999841</v>
+        <f t="shared" ref="I18:M18" si="9">I15+I16+I17</f>
+        <v>22.199999999999818</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="9"/>
-        <v>200.90000000000018</v>
+        <v>198.50000000000031</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="9"/>
@@ -1902,7 +1958,10 @@
         <f t="shared" si="9"/>
         <v>102.5</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <f t="shared" si="9"/>
+        <v>156.2000000000001</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -1962,11 +2021,11 @@
         <v>-6.2</v>
       </c>
       <c r="I19" s="3">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="J19" s="3">
         <f>+V19-SUM(G19:I19)</f>
-        <v>17.600000000000001</v>
+        <v>17.200000000000003</v>
       </c>
       <c r="K19" s="3">
         <v>36.4</v>
@@ -1974,7 +2033,9 @@
       <c r="L19" s="3">
         <v>22.9</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>34.200000000000003</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3">
@@ -2026,7 +2087,7 @@
         <v>-0.8</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2037,7 +2098,9 @@
       <c r="L20" s="3">
         <v>12.6</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>-96.1</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
@@ -2096,11 +2159,11 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="12"/>
-        <v>20.699999999999839</v>
+        <v>20.699999999999818</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="12"/>
-        <v>183.30000000000018</v>
+        <v>181.3000000000003</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="12"/>
@@ -2110,7 +2173,10 @@
         <f>+L18-L19-L20</f>
         <v>67</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <f>+M18-M19-M20</f>
+        <v>218.10000000000008</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -2177,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" ref="C23:L23" si="19">C21/C24</f>
+        <f t="shared" ref="C23:M23" si="19">C21/C24</f>
         <v>0.2896785180133899</v>
       </c>
       <c r="D23" s="20">
@@ -2202,11 +2268,11 @@
       </c>
       <c r="I23" s="20">
         <f t="shared" si="19"/>
-        <v>5.1985618447374059E-2</v>
+        <v>5.198561844737401E-2</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="19"/>
-        <v>0.4603214465092923</v>
+        <v>0.45529884480160798</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="19"/>
@@ -2216,7 +2282,10 @@
         <f t="shared" si="19"/>
         <v>0.16901307263142556</v>
       </c>
-      <c r="M23" s="20"/>
+      <c r="M23" s="20">
+        <f t="shared" si="19"/>
+        <v>0.55123219224309916</v>
+      </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20">
@@ -2288,7 +2357,9 @@
       <c r="L24" s="3">
         <v>396.41904</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>395.65904</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
@@ -2376,9 +2447,9 @@
         <f t="shared" ref="L26:N28" si="26">L8/H8-1</f>
         <v>6.2825250773059782E-2</v>
       </c>
-      <c r="M26" s="21" t="e">
+      <c r="M26" s="21">
         <f t="shared" ref="M26:M27" si="27">M8/I8-1</f>
-        <v>#DIV/0!</v>
+        <v>7.0522361613154727E-2</v>
       </c>
       <c r="N26" s="21" t="e">
         <f t="shared" ref="N26:N27" si="28">N8/J8-1</f>
@@ -2430,9 +2501,9 @@
         <f t="shared" si="26"/>
         <v>0.11854103343465039</v>
       </c>
-      <c r="M27" s="21" t="e">
+      <c r="M27" s="21">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>2.4844720496894235E-2</v>
       </c>
       <c r="N27" s="21" t="e">
         <f t="shared" si="28"/>
@@ -2469,11 +2540,11 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" si="29"/>
-        <v>3.838517538054198E-3</v>
+        <v>-4.4937127729980153E-2</v>
       </c>
       <c r="J28" s="22">
         <f>J10/F10-1</f>
-        <v>0.17037082140899962</v>
+        <v>0.21524690982159167</v>
       </c>
       <c r="K28" s="22">
         <f>K10/G10-1</f>
@@ -2485,7 +2556,7 @@
       </c>
       <c r="M28" s="22">
         <f t="shared" si="26"/>
-        <v>-1</v>
+        <v>6.9503152934654588E-2</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="26"/>
@@ -2555,11 +2626,11 @@
       </c>
       <c r="I29" s="21">
         <f t="shared" si="32"/>
-        <v>0.60040875527426163</v>
+        <v>0.60557133947751363</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="32"/>
-        <v>0.60678424639716977</v>
+        <v>0.6028159134181782</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" ref="K29:N29" si="33">K12/K10</f>
@@ -2569,9 +2640,9 @@
         <f t="shared" si="33"/>
         <v>0.626417704011065</v>
       </c>
-      <c r="M29" s="21" t="e">
+      <c r="M29" s="21">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>0.61656083970454845</v>
       </c>
       <c r="N29" s="21" t="e">
         <f t="shared" si="33"/>
@@ -2641,11 +2712,11 @@
       </c>
       <c r="I30" s="21">
         <f t="shared" si="36"/>
-        <v>1.9976265822784705E-2</v>
+        <v>2.2659552352574195E-2</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="36"/>
-        <v>0.11097237396597479</v>
+        <v>0.10567191101312771</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" ref="K30:N30" si="37">K15/K10</f>
@@ -2655,9 +2726,9 @@
         <f t="shared" si="37"/>
         <v>7.4688796680497924E-2</v>
       </c>
-      <c r="M30" s="21" t="e">
+      <c r="M30" s="21">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.10846183750161985</v>
       </c>
       <c r="N30" s="21" t="e">
         <f t="shared" si="37"/>
@@ -2727,11 +2798,11 @@
       </c>
       <c r="I31" s="21">
         <f t="shared" si="40"/>
-        <v>1.3647151898734071E-2</v>
+        <v>1.4344120296583619E-2</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="40"/>
-        <v>9.5364445138130249E-2</v>
+        <v>9.0840765607776472E-2</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" ref="K31:N31" si="41">K21/K10</f>
@@ -2741,9 +2812,9 @@
         <f t="shared" si="41"/>
         <v>4.6334716459197789E-2</v>
       </c>
-      <c r="M31" s="21" t="e">
+      <c r="M31" s="21">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>0.14131139043669824</v>
       </c>
       <c r="N31" s="21" t="e">
         <f t="shared" si="41"/>
@@ -2813,11 +2884,11 @@
       </c>
       <c r="I32" s="21">
         <f t="shared" si="44"/>
-        <v>-4.5454545454545824E-2</v>
+        <v>-2.2522522522522705E-2</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="44"/>
-        <v>8.7605774016923779E-2</v>
+        <v>8.6649874055415493E-2</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" ref="K32:N32" si="45">K19/K18</f>
@@ -2827,9 +2898,9 @@
         <f t="shared" si="45"/>
         <v>0.22341463414634144</v>
       </c>
-      <c r="M32" s="21" t="e">
+      <c r="M32" s="21">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>0.21895006402048642</v>
       </c>
       <c r="N32" s="21" t="e">
         <f t="shared" si="45"/>

--- a/LEVI.xlsx
+++ b/LEVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A5221-899C-4A40-8381-84084641E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AE105-E4F1-4AE6-90DC-1882E6CCBF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D6D5C0B0-0DA9-4C26-A53F-ED546E3BB507}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Levis &amp; Strauss</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Asia</t>
+  </si>
+  <si>
+    <t>FY25</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB580E4-37AA-40C1-AAF1-14DD30CC99D4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>22.77</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -878,11 +881,11 @@
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <f>103.091513+287.738043</f>
-        <v>390.82955600000003</v>
+        <f>103.742231+286.725056</f>
+        <v>390.467287</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -895,7 +898,7 @@
       </c>
       <c r="I4" s="3">
         <f>I3*I2</f>
-        <v>8899.1889901200011</v>
+        <v>8574.6616225199996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -906,11 +909,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="3">
-        <f>612.8+94.7</f>
-        <v>707.5</v>
+        <f>757.9+90.9</f>
+        <v>848.8</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -918,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="3">
-        <v>1042.8</v>
+        <v>1039.2</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -936,7 +939,7 @@
       </c>
       <c r="I7" s="3">
         <f>I4-I5+I6</f>
-        <v>9234.4889901200004</v>
+        <v>8765.0616225199992</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -992,13 +995,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24653C7A-501A-410A-9E04-3084EFB9A76F}">
-  <dimension ref="A1:Z330"/>
+  <dimension ref="A1:AG330"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,12 +1011,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1072,8 +1075,11 @@
       <c r="V2" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W2" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>63</v>
@@ -1110,8 +1116,21 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W3" s="3">
+        <v>3297</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>64</v>
@@ -1148,8 +1167,21 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W4" s="3">
+        <v>1699.3</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -1186,8 +1218,21 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W5" s="3">
+        <v>1134.4000000000001</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>61</v>
@@ -1224,8 +1269,21 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W6" s="3">
+        <v>3205.2</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>62</v>
@@ -1262,8 +1320,21 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W7" s="3">
+        <v>3076.8</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -1302,8 +1373,21 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>6130.7</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>52</v>
@@ -1340,8 +1424,21 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1403,12 +1500,21 @@
       <c r="V10" s="19">
         <v>6355.3</v>
       </c>
-      <c r="W10" s="3"/>
+      <c r="W10" s="19">
+        <v>6282</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1470,12 +1576,21 @@
       <c r="V11" s="3">
         <v>2539.4</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3">
+        <v>2404.1999999999998</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1553,12 +1668,22 @@
         <f>V10-V11</f>
         <v>3815.9</v>
       </c>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3">
+        <f>+W10-W11</f>
+        <v>3877.8</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1620,12 +1745,21 @@
       <c r="V13" s="3">
         <v>3246.2</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3">
+        <v>3173.2</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1690,12 +1824,22 @@
         <f>188.7+116.9</f>
         <v>305.60000000000002</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="3">
+        <f>24.5+2.5</f>
+        <v>27</v>
+      </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1773,12 +1917,22 @@
         <f>V12-SUM(V13:V14)</f>
         <v>264.10000000000036</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3">
+        <f>W12-SUM(W13:W14)</f>
+        <v>677.60000000000036</v>
+      </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1840,12 +1994,21 @@
       <c r="V16" s="3">
         <v>-41.8</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3">
+        <v>-48.6</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1909,12 +2072,21 @@
       <c r="V17" s="3">
         <v>-3.3</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>5</v>
+      </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1985,19 +2157,29 @@
         <v>649.60000000000036</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" ref="U18:V18" si="11">U15+U16+U17</f>
+        <f t="shared" ref="U18:W18" si="11">U15+U16+U17</f>
         <v>265.20000000000022</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="11"/>
         <v>219.00000000000034</v>
       </c>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3">
+        <f t="shared" si="11"/>
+        <v>634.00000000000034</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2059,12 +2241,14 @@
       <c r="V19" s="3">
         <v>8.4</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3">
+        <v>132</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
@@ -2124,12 +2308,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3">
+        <v>-76.099999999999994</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
@@ -2200,19 +2386,22 @@
         <v>569.10000000000036</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" ref="U21:V21" si="18">U18-U19-U20</f>
+        <f t="shared" ref="U21:W21" si="18">U18-U19-U20</f>
         <v>249.60000000000022</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" si="18"/>
         <v>210.60000000000034</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3">
+        <f t="shared" si="18"/>
+        <v>578.10000000000036</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2238,7 +2427,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -2289,7 +2478,7 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20">
-        <f t="shared" ref="P23:V23" si="20">P21/P24</f>
+        <f t="shared" ref="P23:W23" si="20">P21/P24</f>
         <v>0.75076129518607881</v>
       </c>
       <c r="Q23" s="20">
@@ -2316,12 +2505,15 @@
         <f t="shared" si="20"/>
         <v>0.52887995981918723</v>
       </c>
-      <c r="W23" s="3"/>
+      <c r="W23" s="20">
+        <f t="shared" si="20"/>
+        <v>1.4616031726755367</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -2383,12 +2575,14 @@
       <c r="V24" s="3">
         <v>398.2</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="3">
+        <v>395.52459299999998</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2414,7 +2608,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
@@ -2468,7 +2662,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>60</v>
@@ -2522,7 +2716,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2563,40 +2757,43 @@
         <v>-1</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="21" t="e">
+      <c r="P28" s="22" t="e">
         <f t="shared" ref="P28:U28" si="30">P10/O10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="22">
         <f t="shared" si="30"/>
         <v>3.3655998450346614E-2</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="22">
         <f t="shared" si="30"/>
         <v>-0.22739167394141369</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="22">
         <f t="shared" si="30"/>
         <v>0.29449947210725202</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="22">
         <f t="shared" si="30"/>
         <v>7.0212876698069193E-2</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U28" s="22">
         <f t="shared" si="30"/>
         <v>1.685957915896541E-3</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="22">
         <f>V10/U10-1</f>
         <v>2.8532124939310677E-2</v>
       </c>
-      <c r="W28" s="3"/>
+      <c r="W28" s="22">
+        <f>W10/V10-1</f>
+        <v>-1.1533680550092074E-2</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2677,29 +2874,32 @@
         <f t="shared" si="34"/>
         <v>0.60042798923732943</v>
       </c>
-      <c r="W29" s="3"/>
+      <c r="W29" s="21">
+        <f t="shared" ref="W29" si="35">W12/W10</f>
+        <v>0.6172874880611271</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" ref="C30:F30" si="35">C15/C10</f>
+        <f t="shared" ref="C30:F30" si="36">C15/C10</f>
         <v>9.3196755284504759E-2</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.4057450628366083E-3</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.3031105228325584E-2</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.2066004992997844E-2</v>
       </c>
       <c r="G30" s="21">
@@ -2707,85 +2907,88 @@
         <v>-2.5680534155123568E-4</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" ref="H30:J30" si="36">H15/H10</f>
+        <f t="shared" ref="H30:J30" si="37">H15/H10</f>
         <v>1.5381218722402104E-2</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.2659552352574195E-2</v>
       </c>
       <c r="J30" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.10567191101312771</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" ref="K30:N30" si="37">K15/K10</f>
+        <f t="shared" ref="K30:N30" si="38">K15/K10</f>
         <v>0.12549122347393235</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.4688796680497924E-2</v>
       </c>
       <c r="M30" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.10846183750161985</v>
       </c>
       <c r="N30" s="21" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="21">
-        <f t="shared" ref="P30:V30" si="38">P15/P10</f>
+        <f t="shared" ref="P30:V30" si="39">P15/P10</f>
         <v>9.6927058671602534E-2</v>
       </c>
       <c r="Q30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>9.8328378523524038E-2</v>
       </c>
       <c r="R30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.9116657222765277E-2</v>
       </c>
       <c r="S30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.1190513367685074</v>
       </c>
       <c r="T30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.10480498006030549</v>
       </c>
       <c r="U30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.7177536818255409E-2</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.1555866756880139E-2</v>
       </c>
-      <c r="W30" s="3"/>
+      <c r="W30" s="21">
+        <f t="shared" ref="W30" si="40">W15/W10</f>
+        <v>0.10786373766316465</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" ref="C31:F31" si="39">C21/C10</f>
+        <f t="shared" ref="C31:F31" si="41">C21/C10</f>
         <v>6.7914026881402148E-2</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1.196888090963512E-3</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.3534083388484151E-3</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.7269682761980374E-2</v>
       </c>
       <c r="G31" s="21">
@@ -2793,85 +2996,88 @@
         <v>-6.8053415511043951E-3</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" ref="H31:J31" si="40">H21/H10</f>
+        <f t="shared" ref="H31:J31" si="42">H21/H10</f>
         <v>1.3246982631733868E-2</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4344120296583619E-2</v>
       </c>
       <c r="J31" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.0840765607776472E-2</v>
       </c>
       <c r="K31" s="21">
-        <f t="shared" ref="K31:N31" si="41">K21/K10</f>
+        <f t="shared" ref="K31:N31" si="43">K21/K10</f>
         <v>8.8420225307833319E-2</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.6334716459197789E-2</v>
       </c>
       <c r="M31" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.14131139043669824</v>
       </c>
       <c r="N31" s="21" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="21">
-        <f t="shared" ref="P31:V31" si="42">P21/P10</f>
+        <f t="shared" ref="P31:V31" si="44">P21/P10</f>
         <v>5.0783794642216509E-2</v>
       </c>
       <c r="Q31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.8472330887942634E-2</v>
       </c>
       <c r="R31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.8554270091984198E-2</v>
       </c>
       <c r="S31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.6028730547025418E-2</v>
       </c>
       <c r="T31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.2257562493920878E-2</v>
       </c>
       <c r="U31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.0394885903867979E-2</v>
       </c>
       <c r="V31" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.3137696096171752E-2</v>
       </c>
-      <c r="W31" s="3"/>
+      <c r="W31" s="21">
+        <f t="shared" ref="W31" si="45">W21/W10</f>
+        <v>9.2024832855778477E-2</v>
+      </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="21">
-        <f t="shared" ref="C32:F32" si="43">C19/C18</f>
+        <f t="shared" ref="C32:F32" si="46">C19/C18</f>
         <v>0.17600574712643666</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.77777777777777535</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3.8235294117646554</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7.1010248901903175E-2</v>
       </c>
       <c r="G32" s="21">
@@ -2879,63 +3085,66 @@
         <v>0.16535433070865876</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" ref="H32:J32" si="44">H19/H18</f>
+        <f t="shared" ref="H32:J32" si="47">H19/H18</f>
         <v>-0.56363636363636482</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-2.2522522522522705E-2</v>
       </c>
       <c r="J32" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8.6649874055415493E-2</v>
       </c>
       <c r="K32" s="21">
-        <f t="shared" ref="K32:N32" si="45">K19/K18</f>
+        <f t="shared" ref="K32:N32" si="48">K19/K18</f>
         <v>0.20611551528878833</v>
       </c>
       <c r="L32" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.22341463414634144</v>
       </c>
       <c r="M32" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.21895006402048642</v>
       </c>
       <c r="N32" s="21" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="21">
-        <f t="shared" ref="P32:V32" si="46">P19/P18</f>
+        <f t="shared" ref="P32:V32" si="49">P19/P18</f>
         <v>0.42953710036758413</v>
       </c>
       <c r="Q32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.1729622432912323</v>
       </c>
       <c r="R32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.33007171348329467</v>
       </c>
       <c r="S32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4.6018614270941068E-2</v>
       </c>
       <c r="T32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.12392241379310338</v>
       </c>
       <c r="U32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5.8823529411764656E-2</v>
       </c>
       <c r="V32" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3.8356164383561583E-2</v>
       </c>
-      <c r="W32" s="3"/>
+      <c r="W32" s="21">
+        <f t="shared" ref="W32" si="50">W19/W18</f>
+        <v>0.20820189274447939</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
